--- a/data/physeqraw/cold seep env.xlsx
+++ b/data/physeqraw/cold seep env.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XZM\Desktop\haima cold seep amplicon data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erfanshekarriz/git_repo/coldseepfungi/data/physeqraw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8706FD-620A-4046-8EF0-855336D62B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C2C139-032B-8B40-B711-F3E6FA68EE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C07C3510-FC09-7444-99D8-668291464ABA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{C07C3510-FC09-7444-99D8-668291464ABA}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -708,7 +706,6 @@
   </si>
   <si>
     <t>C13--CH4 (AOM)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -716,19 +713,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000&quot;  &quot;"/>
-    <numFmt numFmtId="180" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="0.0_ "/>
-    <numFmt numFmtId="182" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000_ "/>
+    <numFmt numFmtId="165" formatCode="0.00_ "/>
+    <numFmt numFmtId="166" formatCode="0.0000&quot;  &quot;"/>
+    <numFmt numFmtId="167" formatCode="0_ "/>
+    <numFmt numFmtId="168" formatCode="0.0_ "/>
+    <numFmt numFmtId="169" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -736,14 +733,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -931,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -939,10 +936,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -952,59 +949,59 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1012,8 +1009,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1029,7 +1026,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1328,24 +1325,24 @@
   <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="M2" sqref="M2:M44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="10.875"/>
-    <col min="3" max="3" width="12.875" style="7" customWidth="1"/>
-    <col min="4" max="6" width="10.875"/>
-    <col min="8" max="8" width="16.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="26.625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="26.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125"/>
+    <col min="3" max="3" width="12.83203125" style="7" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125"/>
+    <col min="8" max="8" width="16.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="18.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="31">
       <c r="A1" s="5" t="s">
         <v>168</v>
       </c>
@@ -1385,7 +1382,7 @@
       </c>
       <c r="P1" s="27"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
         <v>166</v>
       </c>
@@ -1425,7 +1422,7 @@
       </c>
       <c r="P2" s="25"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1465,7 +1462,7 @@
       </c>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1505,7 +1502,7 @@
       </c>
       <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1545,7 +1542,7 @@
       </c>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1585,7 +1582,7 @@
       </c>
       <c r="P6" s="25"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1625,7 +1622,7 @@
       </c>
       <c r="P7" s="25"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1665,7 +1662,7 @@
       </c>
       <c r="P8" s="25"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1705,7 +1702,7 @@
       </c>
       <c r="P9" s="25"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1745,7 +1742,7 @@
       </c>
       <c r="P10" s="25"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1785,7 +1782,7 @@
       </c>
       <c r="P11" s="25"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1825,7 +1822,7 @@
       </c>
       <c r="P12" s="25"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1865,7 +1862,7 @@
       </c>
       <c r="P13" s="25"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1905,7 +1902,7 @@
       </c>
       <c r="P14" s="25"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1945,7 +1942,7 @@
       </c>
       <c r="P15" s="25"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -1985,7 +1982,7 @@
       </c>
       <c r="P16" s="25"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -2025,7 +2022,7 @@
       </c>
       <c r="P17" s="25"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -2065,7 +2062,7 @@
       </c>
       <c r="P18" s="25"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -2105,7 +2102,7 @@
       </c>
       <c r="P19" s="25"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -2145,7 +2142,7 @@
       </c>
       <c r="P20" s="25"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -2185,7 +2182,7 @@
       </c>
       <c r="P21" s="25"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -2225,7 +2222,7 @@
       </c>
       <c r="P22" s="25"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -2265,7 +2262,7 @@
       </c>
       <c r="P23" s="25"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -2305,7 +2302,7 @@
       </c>
       <c r="P24" s="25"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
@@ -2345,7 +2342,7 @@
       </c>
       <c r="P25" s="25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
@@ -2385,7 +2382,7 @@
       </c>
       <c r="P26" s="25"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
@@ -2425,7 +2422,7 @@
       </c>
       <c r="P27" s="25"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
@@ -2465,7 +2462,7 @@
       </c>
       <c r="P28" s="25"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
@@ -2505,7 +2502,7 @@
       </c>
       <c r="P29" s="25"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
@@ -2545,7 +2542,7 @@
       </c>
       <c r="P30" s="25"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
@@ -2585,7 +2582,7 @@
       </c>
       <c r="P31" s="25"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
@@ -2625,7 +2622,7 @@
       </c>
       <c r="P32" s="25"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -2665,7 +2662,7 @@
       </c>
       <c r="P33" s="25"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16">
       <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
@@ -2705,7 +2702,7 @@
       </c>
       <c r="P34" s="25"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16">
       <c r="A35" s="8" t="s">
         <v>33</v>
       </c>
@@ -2745,7 +2742,7 @@
       </c>
       <c r="P35" s="25"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16">
       <c r="A36" s="8" t="s">
         <v>34</v>
       </c>
@@ -2785,7 +2782,7 @@
       </c>
       <c r="P36" s="25"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="A37" s="8" t="s">
         <v>35</v>
       </c>
@@ -2823,7 +2820,7 @@
       </c>
       <c r="P37" s="25"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16">
       <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
@@ -2863,7 +2860,7 @@
       </c>
       <c r="P38" s="25"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16">
       <c r="A39" s="8" t="s">
         <v>37</v>
       </c>
@@ -2903,7 +2900,7 @@
       </c>
       <c r="P39" s="25"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16">
       <c r="A40" s="8" t="s">
         <v>38</v>
       </c>
@@ -2943,7 +2940,7 @@
       </c>
       <c r="P40" s="25"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16">
       <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
@@ -2983,7 +2980,7 @@
       </c>
       <c r="P41" s="25"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16">
       <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
@@ -3023,7 +3020,7 @@
       </c>
       <c r="P42" s="25"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16">
       <c r="A43" s="8" t="s">
         <v>41</v>
       </c>
@@ -3063,7 +3060,7 @@
       </c>
       <c r="P43" s="25"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -3092,7 +3089,7 @@
         <v>6.2743557263911898</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16">
       <c r="A45" s="8" t="s">
         <v>43</v>
       </c>
@@ -3115,7 +3112,7 @@
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16">
       <c r="A46" s="8" t="s">
         <v>44</v>
       </c>
@@ -3138,7 +3135,7 @@
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16">
       <c r="A47" s="8" t="s">
         <v>45</v>
       </c>
@@ -3161,7 +3158,7 @@
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16">
       <c r="A48" s="8" t="s">
         <v>46</v>
       </c>
@@ -3184,7 +3181,7 @@
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="8" t="s">
         <v>47</v>
       </c>
@@ -3207,7 +3204,7 @@
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
         <v>48</v>
       </c>
@@ -3230,7 +3227,7 @@
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
         <v>49</v>
       </c>
@@ -3253,7 +3250,7 @@
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="8" t="s">
         <v>50</v>
       </c>
@@ -3276,7 +3273,7 @@
       <c r="M52" s="24"/>
       <c r="N52" s="24"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="8" t="s">
         <v>51</v>
       </c>
@@ -3299,7 +3296,7 @@
       <c r="M53" s="24"/>
       <c r="N53" s="24"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="8" t="s">
         <v>52</v>
       </c>
@@ -3319,7 +3316,7 @@
         <v>2107.1944706252002</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55" s="8" t="s">
         <v>53</v>
       </c>
@@ -3339,7 +3336,7 @@
         <v>2187.7788250078502</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="8" t="s">
         <v>54</v>
       </c>
@@ -3359,7 +3356,7 @@
         <v>1865.5984919886901</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" s="8" t="s">
         <v>55</v>
       </c>
@@ -3379,7 +3376,7 @@
         <v>2333.7103361608501</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58" s="8" t="s">
         <v>56</v>
       </c>
@@ -3399,7 +3396,7 @@
         <v>2226.8143261074501</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59" s="8" t="s">
         <v>57</v>
       </c>
@@ -3419,7 +3416,7 @@
         <v>1975.4005655042399</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" s="8" t="s">
         <v>167</v>
       </c>
@@ -3439,7 +3436,7 @@
         <v>9393.5931790499399</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61" s="8" t="s">
         <v>58</v>
       </c>
@@ -3459,7 +3456,7 @@
         <v>36484.579780755201</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62" s="8" t="s">
         <v>59</v>
       </c>
@@ -3479,7 +3476,7 @@
         <v>27987.0158343484</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63" s="8" t="s">
         <v>60</v>
       </c>
@@ -3499,7 +3496,7 @@
         <v>30175.931790499399</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64" s="8" t="s">
         <v>61</v>
       </c>
@@ -3519,7 +3516,7 @@
         <v>34583.727161997602</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="8" t="s">
         <v>62</v>
       </c>
@@ -3539,7 +3536,7 @@
         <v>16888.964677222899</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="8" t="s">
         <v>63</v>
       </c>
@@ -3559,7 +3556,7 @@
         <v>22780.925700365398</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="8" t="s">
         <v>64</v>
       </c>
@@ -3579,7 +3576,7 @@
         <v>1833.4226552984201</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="8" t="s">
         <v>65</v>
       </c>
@@ -3599,7 +3596,7 @@
         <v>1502.6065773447001</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="8" t="s">
         <v>66</v>
       </c>
@@ -3619,7 +3616,7 @@
         <v>5040.9744214372704</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="8" t="s">
         <v>67</v>
       </c>
@@ -3639,7 +3636,7 @@
         <v>6757.4177831912302</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="8" t="s">
         <v>68</v>
       </c>
@@ -3659,7 +3656,7 @@
         <v>7941.09622411693</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="8" t="s">
         <v>69</v>
       </c>
@@ -3679,7 +3676,7 @@
         <v>5659.9756394640699</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="8" t="s">
         <v>70</v>
       </c>
@@ -3699,7 +3696,7 @@
         <v>7203.8246041412904</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="8" t="s">
         <v>71</v>
       </c>
@@ -3719,7 +3716,7 @@
         <v>2513.9342265529799</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="8" t="s">
         <v>72</v>
       </c>
@@ -3739,7 +3736,7 @@
         <v>3876.5408038976898</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="8" t="s">
         <v>73</v>
       </c>
@@ -3759,7 +3756,7 @@
         <v>1806.6225165562901</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="8" t="s">
         <v>74</v>
       </c>
@@ -3779,7 +3776,7 @@
         <v>3210.01168679392</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="8" t="s">
         <v>75</v>
       </c>
@@ -3799,7 +3796,7 @@
         <v>3341.7802882742499</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="8" t="s">
         <v>76</v>
       </c>
@@ -3819,7 +3816,7 @@
         <v>3371.9711725749899</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="8" t="s">
         <v>77</v>
       </c>
@@ -3839,7 +3836,7 @@
         <v>3239.5208414491599</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="8" t="s">
         <v>78</v>
       </c>
@@ -3859,7 +3856,7 @@
         <v>3442.0919361121901</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="8" t="s">
         <v>79</v>
       </c>
@@ -3879,7 +3876,7 @@
         <v>3535.4888975457702</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="8" t="s">
         <v>80</v>
       </c>
@@ -3899,7 +3896,7 @@
         <v>2977.2497078301499</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" s="8" t="s">
         <v>81</v>
       </c>
@@ -3919,7 +3916,7 @@
         <v>3517.37436696533</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" s="8" t="s">
         <v>82</v>
       </c>
@@ -3939,7 +3936,7 @@
         <v>3591.58550837554</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="8" t="s">
         <v>83</v>
       </c>
@@ -3959,7 +3956,7 @@
         <v>3284.5149980522001</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="8" t="s">
         <v>84</v>
       </c>
@@ -3979,7 +3976,7 @@
         <v>3863.2060771328402</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" s="8" t="s">
         <v>85</v>
       </c>
@@ -3999,7 +3996,7 @@
         <v>4244.2929489676699</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="8" t="s">
         <v>86</v>
       </c>
@@ -4019,7 +4016,7 @@
         <v>4164.6604337099097</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="8" t="s">
         <v>87</v>
       </c>
@@ -4039,7 +4036,7 @@
         <v>4103.82417867809</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" s="8" t="s">
         <v>88</v>
       </c>
@@ -4059,7 +4056,7 @@
         <v>4118.2703544994201</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" s="8" t="s">
         <v>89</v>
       </c>
@@ -4079,7 +4076,7 @@
         <v>3356.4861706271899</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" s="8" t="s">
         <v>90</v>
       </c>
@@ -4099,7 +4096,7 @@
         <v>3169.9844176081001</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="8" t="s">
         <v>91</v>
       </c>
@@ -4119,7 +4116,7 @@
         <v>11766.887417218501</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" s="8" t="s">
         <v>92</v>
       </c>
@@ -4139,7 +4136,7 @@
         <v>33244.000779119597</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" s="8" t="s">
         <v>93</v>
       </c>
@@ -4159,7 +4156,7 @@
         <v>29384.729255940802</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" s="8" t="s">
         <v>94</v>
       </c>
@@ -4179,7 +4176,7 @@
         <v>44281.191992341897</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" s="8" t="s">
         <v>95</v>
       </c>
@@ -4199,7 +4196,7 @@
         <v>34598.501685603696</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" s="8" t="s">
         <v>96</v>
       </c>
@@ -4219,7 +4216,7 @@
         <v>29518.4389783716</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" s="8" t="s">
         <v>97</v>
       </c>
@@ -4239,7 +4236,7 @@
         <v>48936.843273539504</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" s="8" t="s">
         <v>98</v>
       </c>
@@ -4259,7 +4256,7 @@
         <v>37100.145669455203</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" s="8" t="s">
         <v>99</v>
       </c>
@@ -4279,7 +4276,7 @@
         <v>33788.329795646598</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" s="8" t="s">
         <v>100</v>
       </c>
@@ -4299,7 +4296,7 @@
         <v>35998.288037069397</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" s="8" t="s">
         <v>101</v>
       </c>
@@ -4319,7 +4316,7 @@
         <v>47814.571107504104</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" s="8" t="s">
         <v>102</v>
       </c>
@@ -4339,7 +4336,7 @@
         <v>56420.972239563802</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" s="8" t="s">
         <v>103</v>
       </c>
@@ -4359,7 +4356,7 @@
         <v>38693.977608523703</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" s="8" t="s">
         <v>104</v>
       </c>
@@ -4379,7 +4376,7 @@
         <v>41201.767456056397</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" s="8" t="s">
         <v>105</v>
       </c>
@@ -4399,7 +4396,7 @@
         <v>50690.523161443401</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" s="8" t="s">
         <v>106</v>
       </c>
@@ -4419,7 +4416,7 @@
         <v>132551.693234001</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" s="8" t="s">
         <v>107</v>
       </c>
@@ -4439,7 +4436,7 @@
         <v>94176.254491474901</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" s="8" t="s">
         <v>108</v>
       </c>
@@ -4459,7 +4456,7 @@
         <v>52092.0159265271</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" s="8" t="s">
         <v>109</v>
       </c>
@@ -4479,7 +4476,7 @@
         <v>51197.452865526298</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" s="8" t="s">
         <v>110</v>
       </c>
@@ -4499,7 +4496,7 @@
         <v>89299.754442918405</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" s="8" t="s">
         <v>111</v>
       </c>
